--- a/SchedulingData/static4/pso/scheduling1_12.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_12.xlsx
@@ -462,135 +462,135 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>77.3</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>25.92</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>85.26000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>24.624</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>61.76</v>
+        <v>145.5</v>
       </c>
       <c r="E4" t="n">
-        <v>27.504</v>
+        <v>19.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61.76</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>128.46</v>
+        <v>55.46</v>
       </c>
       <c r="E5" t="n">
-        <v>22.464</v>
+        <v>25.644</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>77.3</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>112.1</v>
+        <v>139.5</v>
       </c>
       <c r="E6" t="n">
-        <v>23.08</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>55.46</v>
+        <v>43.84</v>
       </c>
       <c r="E7" t="n">
-        <v>25.644</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>55.46</v>
       </c>
       <c r="D8" t="n">
-        <v>73.90000000000001</v>
+        <v>111.72</v>
       </c>
       <c r="E8" t="n">
-        <v>24.3</v>
+        <v>23.148</v>
       </c>
     </row>
     <row r="9">
@@ -599,36 +599,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>128.46</v>
+        <v>139.5</v>
       </c>
       <c r="D9" t="n">
-        <v>184.7</v>
+        <v>186.9</v>
       </c>
       <c r="E9" t="n">
-        <v>18.46</v>
+        <v>18.72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>184.7</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>245.84</v>
+        <v>53.2</v>
       </c>
       <c r="E10" t="n">
-        <v>14.476</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="11">
@@ -637,36 +637,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>85.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>136.5</v>
+        <v>49.1</v>
       </c>
       <c r="E11" t="n">
-        <v>21.12</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>73.90000000000001</v>
+        <v>53.2</v>
       </c>
       <c r="D12" t="n">
-        <v>135.6</v>
+        <v>109.24</v>
       </c>
       <c r="E12" t="n">
-        <v>21.22</v>
+        <v>22.376</v>
       </c>
     </row>
     <row r="13">
@@ -675,207 +675,207 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>135.6</v>
+        <v>43.84</v>
       </c>
       <c r="D13" t="n">
-        <v>198.42</v>
+        <v>112.06</v>
       </c>
       <c r="E13" t="n">
-        <v>17.568</v>
+        <v>23.084</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>112.1</v>
+        <v>109.24</v>
       </c>
       <c r="D14" t="n">
-        <v>165.3</v>
+        <v>170.54</v>
       </c>
       <c r="E14" t="n">
-        <v>20.36</v>
+        <v>18.856</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>49.1</v>
       </c>
       <c r="D15" t="n">
-        <v>76.5</v>
+        <v>124.72</v>
       </c>
       <c r="E15" t="n">
-        <v>26.48</v>
+        <v>21.848</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>136.5</v>
+        <v>145.5</v>
       </c>
       <c r="D16" t="n">
-        <v>209.82</v>
+        <v>192.9</v>
       </c>
       <c r="E16" t="n">
-        <v>16.908</v>
+        <v>16.14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>165.3</v>
+        <v>186.9</v>
       </c>
       <c r="D17" t="n">
-        <v>211.02</v>
+        <v>256.86</v>
       </c>
       <c r="E17" t="n">
-        <v>16.928</v>
+        <v>13.344</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>211.02</v>
+        <v>124.72</v>
       </c>
       <c r="D18" t="n">
-        <v>258.62</v>
+        <v>207.14</v>
       </c>
       <c r="E18" t="n">
-        <v>13.808</v>
+        <v>18.196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>76.5</v>
+        <v>111.72</v>
       </c>
       <c r="D19" t="n">
-        <v>134.56</v>
+        <v>184.12</v>
       </c>
       <c r="E19" t="n">
-        <v>22.784</v>
+        <v>20.028</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>55.46</v>
+        <v>112.06</v>
       </c>
       <c r="D20" t="n">
-        <v>104.38</v>
+        <v>165.32</v>
       </c>
       <c r="E20" t="n">
-        <v>22.872</v>
+        <v>19.388</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>258.62</v>
+        <v>170.54</v>
       </c>
       <c r="D21" t="n">
-        <v>296.96</v>
+        <v>246.78</v>
       </c>
       <c r="E21" t="n">
-        <v>11.104</v>
+        <v>14.852</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>134.56</v>
+        <v>165.32</v>
       </c>
       <c r="D22" t="n">
-        <v>187.16</v>
+        <v>226.22</v>
       </c>
       <c r="E22" t="n">
-        <v>19.144</v>
+        <v>15.908</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>104.38</v>
+        <v>246.78</v>
       </c>
       <c r="D23" t="n">
-        <v>154</v>
+        <v>293.88</v>
       </c>
       <c r="E23" t="n">
-        <v>20.04</v>
+        <v>11.772</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>154</v>
+        <v>184.12</v>
       </c>
       <c r="D24" t="n">
-        <v>205.9</v>
+        <v>242.94</v>
       </c>
       <c r="E24" t="n">
-        <v>17.96</v>
+        <v>17.256</v>
       </c>
     </row>
     <row r="25">
@@ -903,36 +903,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>296.96</v>
+        <v>192.9</v>
       </c>
       <c r="D25" t="n">
-        <v>349.46</v>
+        <v>248.8</v>
       </c>
       <c r="E25" t="n">
-        <v>7.984</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>187.16</v>
+        <v>248.8</v>
       </c>
       <c r="D26" t="n">
-        <v>272.88</v>
+        <v>280.9</v>
       </c>
       <c r="E26" t="n">
-        <v>13.712</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="27">
@@ -941,36 +941,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>272.88</v>
+        <v>293.88</v>
       </c>
       <c r="D27" t="n">
-        <v>343.68</v>
+        <v>331.58</v>
       </c>
       <c r="E27" t="n">
-        <v>9.752000000000001</v>
+        <v>9.132</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>205.9</v>
+        <v>256.86</v>
       </c>
       <c r="D28" t="n">
-        <v>258.4</v>
+        <v>308.1</v>
       </c>
       <c r="E28" t="n">
-        <v>14.84</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="29">
@@ -979,93 +979,93 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>198.42</v>
+        <v>226.22</v>
       </c>
       <c r="D29" t="n">
-        <v>246.22</v>
+        <v>260.84</v>
       </c>
       <c r="E29" t="n">
-        <v>14.928</v>
+        <v>13.576</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>245.84</v>
+        <v>242.94</v>
       </c>
       <c r="D30" t="n">
-        <v>285.36</v>
+        <v>293.88</v>
       </c>
       <c r="E30" t="n">
-        <v>12.144</v>
+        <v>14.292</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>258.4</v>
+        <v>260.84</v>
       </c>
       <c r="D31" t="n">
-        <v>304.24</v>
+        <v>326.06</v>
       </c>
       <c r="E31" t="n">
-        <v>11.876</v>
+        <v>10.144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>209.82</v>
+        <v>280.9</v>
       </c>
       <c r="D32" t="n">
-        <v>260.82</v>
+        <v>340.32</v>
       </c>
       <c r="E32" t="n">
-        <v>13.428</v>
+        <v>7.268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>285.36</v>
+        <v>207.14</v>
       </c>
       <c r="D33" t="n">
-        <v>374.86</v>
+        <v>264.14</v>
       </c>
       <c r="E33" t="n">
-        <v>6.824</v>
+        <v>14.116</v>
       </c>
     </row>
   </sheetData>
